--- a/biology/Botanique/Erythrotrichiaceae/Erythrotrichiaceae.xlsx
+++ b/biology/Botanique/Erythrotrichiaceae/Erythrotrichiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erythrotrichiaceae sont une famille d’algues rouges de l’ordre des Erythropeltidales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Erythrotrichia dérivé du grec  ἐρυθρός / erythrós, rouge, et θριξ / thrix, cheveu, littéralement « cheveu rouge ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (26 juillet 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (26 juillet 2013) :
 Chlidophyllon W.A.Nelson
 Erythrocladia Rosenvinge
 Erythropeltis F.Schmitz
@@ -555,7 +571,7 @@
 Pyrophyllon W.A.Nelson
 Sahlingia Kornmann
 Smithora Hollenberg
-Selon NCBI  (26 juillet 2013)[2] :
+Selon NCBI  (26 juillet 2013) :
 Chlidophyllon
 Chlidophyllon kaspar
 Erythrocladia
@@ -581,7 +597,7 @@
 Pyrophyllon subtumens
 Sahlingia
 Sahlingia subintegra
-Selon World Register of Marine Species                               (26 juillet 2013)[3] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 Chlidophyllon W.A.Nelson, 2003
 Erythrocladia Rosenvinge, 1909
 Erythropeltis F.Schmitz, 1896
